--- a/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/d1b_day_1_solvency_ii_reporting_third_country_branches.xlsx
+++ b/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/d1b_day_1_solvency_ii_reporting_third_country_branches.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\ExcelGenCmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <definedName name="S.28.02.01.06.TD" localSheetId="27">S.28.02.01.06!$C$6:$E$13</definedName>
     <definedName name="Version" localSheetId="0">Info!$B$2:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1061">
   <si>
     <t>S.No</t>
   </si>
@@ -277,7 +277,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Ver:2016.02.29</t>
+    <t>Ver:2016.04.18</t>
   </si>
   <si>
     <t>Back to TOC</t>
@@ -1981,7 +1981,13 @@
     <t>Name of a branch</t>
   </si>
   <si>
+    <t>R0000C0030</t>
+  </si>
+  <si>
     <t>Country of a branch</t>
+  </si>
+  <si>
+    <t>R0000C0040</t>
   </si>
   <si>
     <t>Yes    {s2c_AO:x1}</t>
@@ -3300,7 +3306,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -3308,6 +3314,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3316,6 +3323,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3324,6 +3332,7 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3331,6 +3340,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3844,9 +3854,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3896,9 +3906,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -4101,9 +4111,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4151,9 +4161,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -4676,9 +4686,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -4844,9 +4854,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5106,9 +5116,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5385,12 +5395,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="35" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5431,7 +5441,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:9" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>172</v>
       </c>
@@ -5521,9 +5531,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5798,11 +5808,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5837,7 +5847,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:9" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>172</v>
       </c>
@@ -5905,9 +5915,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -6144,9 +6154,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -6222,9 +6232,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -6585,9 +6595,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6940,9 +6950,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -7016,9 +7026,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -7157,9 +7167,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -7311,9 +7321,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -7419,9 +7429,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -7975,9 +7985,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -8074,9 +8084,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -8271,9 +8281,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -8420,9 +8430,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -8601,7 +8611,7 @@
     <hyperlink ref="B1" location="'Table of contents'!A1" tooltip="Click to navigate Table of contents" display="Back to TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8645,73 +8655,73 @@
         <v>370</v>
       </c>
       <c r="XP1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="XQ1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="XR1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="XS1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="XT1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="XU1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="XV1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="XW1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="XX1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="XY1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="XZ1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="YA1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="YB1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="YC1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="YD1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="YE1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="YF1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="YG1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="YH1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="YI1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="YJ1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="YK1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="YL1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="2" spans="630:662" x14ac:dyDescent="0.25">
@@ -8749,67 +8759,67 @@
         <v>193</v>
       </c>
       <c r="XQ2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="XR2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="XS2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="XT2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="XU2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="XV2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="XW2" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="XX2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="XY2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="XZ2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="YA2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="YB2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="YC2" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="YE2" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="YF2" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="YG2" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="YH2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="YI2" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="YJ2" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="YK2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="YL2" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="630:662" x14ac:dyDescent="0.25">
@@ -8832,40 +8842,40 @@
         <v>372</v>
       </c>
       <c r="XQ3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="XS3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="XU3" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="YC3" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="YE3" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="YF3" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="YG3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="YH3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="YI3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="YJ3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="YK3" t="s">
         <v>1052</v>
       </c>
-      <c r="YH3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="YI3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="YJ3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="YK3" t="s">
-        <v>1050</v>
-      </c>
       <c r="YL3" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="630:662" x14ac:dyDescent="0.25">
@@ -8882,19 +8892,19 @@
         <v>373</v>
       </c>
       <c r="XQ4" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="XS4" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="YH4" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="YI4" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="YJ4" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="630:662" x14ac:dyDescent="0.25">
@@ -8905,13 +8915,13 @@
         <v>374</v>
       </c>
       <c r="XQ5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="XS5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="YH5" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="6" spans="630:662" x14ac:dyDescent="0.25">
@@ -8922,10 +8932,10 @@
         <v>375</v>
       </c>
       <c r="XQ6" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="XS6" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="630:662" x14ac:dyDescent="0.25">
@@ -8936,10 +8946,10 @@
         <v>376</v>
       </c>
       <c r="XQ7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="XS7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" spans="630:662" x14ac:dyDescent="0.25">
@@ -8950,10 +8960,10 @@
         <v>377</v>
       </c>
       <c r="XQ8" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="XS8" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="630:662" x14ac:dyDescent="0.25">
@@ -8964,10 +8974,10 @@
         <v>378</v>
       </c>
       <c r="XQ9" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="XS9" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="630:662" x14ac:dyDescent="0.25">
@@ -8978,10 +8988,10 @@
         <v>379</v>
       </c>
       <c r="XQ10" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="XS10" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="630:662" x14ac:dyDescent="0.25">
@@ -8992,10 +9002,10 @@
         <v>380</v>
       </c>
       <c r="XQ11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="XS11" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="630:662" x14ac:dyDescent="0.25">
@@ -9006,10 +9016,10 @@
         <v>381</v>
       </c>
       <c r="XQ12" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="XS12" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="630:662" x14ac:dyDescent="0.25">
@@ -9020,10 +9030,10 @@
         <v>382</v>
       </c>
       <c r="XQ13" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="XS13" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="14" spans="630:662" x14ac:dyDescent="0.25">
@@ -9034,10 +9044,10 @@
         <v>383</v>
       </c>
       <c r="XQ14" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="XS14" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" spans="630:662" x14ac:dyDescent="0.25">
@@ -9048,10 +9058,10 @@
         <v>384</v>
       </c>
       <c r="XQ15" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="XS15" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="630:662" x14ac:dyDescent="0.25">
@@ -9062,10 +9072,10 @@
         <v>385</v>
       </c>
       <c r="XQ16" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="XS16" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="638:643" x14ac:dyDescent="0.25">
@@ -9076,10 +9086,10 @@
         <v>386</v>
       </c>
       <c r="XQ17" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="XS17" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="18" spans="638:643" x14ac:dyDescent="0.25">
@@ -9090,10 +9100,10 @@
         <v>387</v>
       </c>
       <c r="XQ18" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="XS18" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="19" spans="638:643" x14ac:dyDescent="0.25">
@@ -9104,10 +9114,10 @@
         <v>388</v>
       </c>
       <c r="XQ19" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="XS19" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="638:643" x14ac:dyDescent="0.25">
@@ -9118,10 +9128,10 @@
         <v>389</v>
       </c>
       <c r="XQ20" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="XS20" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="21" spans="638:643" x14ac:dyDescent="0.25">
@@ -9132,10 +9142,10 @@
         <v>390</v>
       </c>
       <c r="XQ21" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="XS21" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="22" spans="638:643" x14ac:dyDescent="0.25">
@@ -9146,10 +9156,10 @@
         <v>391</v>
       </c>
       <c r="XQ22" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="XS22" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="23" spans="638:643" x14ac:dyDescent="0.25">
@@ -9160,10 +9170,10 @@
         <v>392</v>
       </c>
       <c r="XQ23" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="XS23" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" spans="638:643" x14ac:dyDescent="0.25">
@@ -9174,10 +9184,10 @@
         <v>393</v>
       </c>
       <c r="XQ24" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="XS24" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="25" spans="638:643" x14ac:dyDescent="0.25">
@@ -9188,10 +9198,10 @@
         <v>394</v>
       </c>
       <c r="XQ25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="XS25" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="26" spans="638:643" x14ac:dyDescent="0.25">
@@ -9202,10 +9212,10 @@
         <v>395</v>
       </c>
       <c r="XQ26" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="XS26" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="27" spans="638:643" x14ac:dyDescent="0.25">
@@ -9216,10 +9226,10 @@
         <v>396</v>
       </c>
       <c r="XQ27" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="XS27" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="28" spans="638:643" x14ac:dyDescent="0.25">
@@ -9230,10 +9240,10 @@
         <v>397</v>
       </c>
       <c r="XQ28" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="XS28" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="638:643" x14ac:dyDescent="0.25">
@@ -9244,10 +9254,10 @@
         <v>398</v>
       </c>
       <c r="XQ29" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="XS29" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30" spans="638:643" x14ac:dyDescent="0.25">
@@ -9258,10 +9268,10 @@
         <v>399</v>
       </c>
       <c r="XQ30" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="XS30" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="31" spans="638:643" x14ac:dyDescent="0.25">
@@ -9272,10 +9282,10 @@
         <v>400</v>
       </c>
       <c r="XQ31" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="XS31" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="32" spans="638:643" x14ac:dyDescent="0.25">
@@ -9286,10 +9296,10 @@
         <v>401</v>
       </c>
       <c r="XQ32" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="XS32" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="33" spans="638:643" x14ac:dyDescent="0.25">
@@ -9300,10 +9310,10 @@
         <v>402</v>
       </c>
       <c r="XQ33" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="XS33" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="34" spans="638:643" x14ac:dyDescent="0.25">
@@ -9314,10 +9324,10 @@
         <v>403</v>
       </c>
       <c r="XQ34" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="XS34" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="35" spans="638:643" x14ac:dyDescent="0.25">
@@ -9328,10 +9338,10 @@
         <v>404</v>
       </c>
       <c r="XQ35" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="XS35" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="36" spans="638:643" x14ac:dyDescent="0.25">
@@ -9342,10 +9352,10 @@
         <v>405</v>
       </c>
       <c r="XQ36" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="XS36" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="37" spans="638:643" x14ac:dyDescent="0.25">
@@ -9356,10 +9366,10 @@
         <v>406</v>
       </c>
       <c r="XQ37" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="XS37" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="638:643" x14ac:dyDescent="0.25">
@@ -9370,10 +9380,10 @@
         <v>407</v>
       </c>
       <c r="XQ38" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="XS38" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="39" spans="638:643" x14ac:dyDescent="0.25">
@@ -9384,10 +9394,10 @@
         <v>408</v>
       </c>
       <c r="XQ39" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="XS39" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="40" spans="638:643" x14ac:dyDescent="0.25">
@@ -9398,10 +9408,10 @@
         <v>409</v>
       </c>
       <c r="XQ40" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="XS40" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="41" spans="638:643" x14ac:dyDescent="0.25">
@@ -9412,10 +9422,10 @@
         <v>410</v>
       </c>
       <c r="XQ41" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="XS41" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="42" spans="638:643" x14ac:dyDescent="0.25">
@@ -9426,10 +9436,10 @@
         <v>411</v>
       </c>
       <c r="XQ42" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="XS42" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="43" spans="638:643" x14ac:dyDescent="0.25">
@@ -9440,10 +9450,10 @@
         <v>412</v>
       </c>
       <c r="XQ43" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="XS43" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="44" spans="638:643" x14ac:dyDescent="0.25">
@@ -9454,10 +9464,10 @@
         <v>413</v>
       </c>
       <c r="XQ44" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="XS44" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="45" spans="638:643" x14ac:dyDescent="0.25">
@@ -9468,10 +9478,10 @@
         <v>414</v>
       </c>
       <c r="XQ45" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="XS45" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="46" spans="638:643" x14ac:dyDescent="0.25">
@@ -9482,10 +9492,10 @@
         <v>415</v>
       </c>
       <c r="XQ46" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="XS46" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="47" spans="638:643" x14ac:dyDescent="0.25">
@@ -9496,10 +9506,10 @@
         <v>416</v>
       </c>
       <c r="XQ47" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="XS47" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="48" spans="638:643" x14ac:dyDescent="0.25">
@@ -9510,10 +9520,10 @@
         <v>417</v>
       </c>
       <c r="XQ48" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="XS48" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="49" spans="638:643" x14ac:dyDescent="0.25">
@@ -9524,10 +9534,10 @@
         <v>418</v>
       </c>
       <c r="XQ49" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="XS49" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="50" spans="638:643" x14ac:dyDescent="0.25">
@@ -9538,10 +9548,10 @@
         <v>419</v>
       </c>
       <c r="XQ50" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="XS50" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="51" spans="638:643" x14ac:dyDescent="0.25">
@@ -9552,10 +9562,10 @@
         <v>420</v>
       </c>
       <c r="XQ51" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="XS51" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="52" spans="638:643" x14ac:dyDescent="0.25">
@@ -9566,10 +9576,10 @@
         <v>421</v>
       </c>
       <c r="XQ52" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="XS52" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="53" spans="638:643" x14ac:dyDescent="0.25">
@@ -9580,10 +9590,10 @@
         <v>422</v>
       </c>
       <c r="XQ53" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="XS53" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="54" spans="638:643" x14ac:dyDescent="0.25">
@@ -9594,10 +9604,10 @@
         <v>423</v>
       </c>
       <c r="XQ54" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="XS54" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="55" spans="638:643" x14ac:dyDescent="0.25">
@@ -9608,10 +9618,10 @@
         <v>424</v>
       </c>
       <c r="XQ55" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="XS55" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="56" spans="638:643" x14ac:dyDescent="0.25">
@@ -9622,10 +9632,10 @@
         <v>425</v>
       </c>
       <c r="XQ56" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="XS56" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="57" spans="638:643" x14ac:dyDescent="0.25">
@@ -9636,10 +9646,10 @@
         <v>426</v>
       </c>
       <c r="XQ57" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="XS57" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="58" spans="638:643" x14ac:dyDescent="0.25">
@@ -9650,10 +9660,10 @@
         <v>427</v>
       </c>
       <c r="XQ58" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="XS58" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="59" spans="638:643" x14ac:dyDescent="0.25">
@@ -9664,10 +9674,10 @@
         <v>428</v>
       </c>
       <c r="XQ59" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="XS59" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="60" spans="638:643" x14ac:dyDescent="0.25">
@@ -9678,10 +9688,10 @@
         <v>429</v>
       </c>
       <c r="XQ60" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="XS60" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="61" spans="638:643" x14ac:dyDescent="0.25">
@@ -9692,10 +9702,10 @@
         <v>430</v>
       </c>
       <c r="XQ61" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="XS61" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="62" spans="638:643" x14ac:dyDescent="0.25">
@@ -9706,10 +9716,10 @@
         <v>431</v>
       </c>
       <c r="XQ62" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="XS62" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="63" spans="638:643" x14ac:dyDescent="0.25">
@@ -9720,10 +9730,10 @@
         <v>432</v>
       </c>
       <c r="XQ63" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="XS63" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="64" spans="638:643" x14ac:dyDescent="0.25">
@@ -9734,10 +9744,10 @@
         <v>433</v>
       </c>
       <c r="XQ64" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="XS64" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="65" spans="638:643" x14ac:dyDescent="0.25">
@@ -9748,10 +9758,10 @@
         <v>434</v>
       </c>
       <c r="XQ65" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="XS65" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="66" spans="638:643" x14ac:dyDescent="0.25">
@@ -9762,10 +9772,10 @@
         <v>435</v>
       </c>
       <c r="XQ66" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="XS66" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="67" spans="638:643" x14ac:dyDescent="0.25">
@@ -9776,10 +9786,10 @@
         <v>436</v>
       </c>
       <c r="XQ67" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="XS67" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="68" spans="638:643" x14ac:dyDescent="0.25">
@@ -9790,10 +9800,10 @@
         <v>437</v>
       </c>
       <c r="XQ68" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="XS68" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="69" spans="638:643" x14ac:dyDescent="0.25">
@@ -9804,10 +9814,10 @@
         <v>438</v>
       </c>
       <c r="XQ69" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="XS69" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="70" spans="638:643" x14ac:dyDescent="0.25">
@@ -9818,10 +9828,10 @@
         <v>439</v>
       </c>
       <c r="XQ70" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="XS70" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="71" spans="638:643" x14ac:dyDescent="0.25">
@@ -9832,10 +9842,10 @@
         <v>440</v>
       </c>
       <c r="XQ71" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="XS71" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="72" spans="638:643" x14ac:dyDescent="0.25">
@@ -9846,10 +9856,10 @@
         <v>441</v>
       </c>
       <c r="XQ72" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="XS72" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="73" spans="638:643" x14ac:dyDescent="0.25">
@@ -9860,10 +9870,10 @@
         <v>442</v>
       </c>
       <c r="XQ73" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="XS73" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="74" spans="638:643" x14ac:dyDescent="0.25">
@@ -9874,10 +9884,10 @@
         <v>443</v>
       </c>
       <c r="XQ74" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="XS74" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="75" spans="638:643" x14ac:dyDescent="0.25">
@@ -9888,10 +9898,10 @@
         <v>444</v>
       </c>
       <c r="XQ75" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="XS75" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="76" spans="638:643" x14ac:dyDescent="0.25">
@@ -9902,10 +9912,10 @@
         <v>445</v>
       </c>
       <c r="XQ76" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="XS76" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="77" spans="638:643" x14ac:dyDescent="0.25">
@@ -9916,10 +9926,10 @@
         <v>446</v>
       </c>
       <c r="XQ77" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="XS77" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="78" spans="638:643" x14ac:dyDescent="0.25">
@@ -9930,10 +9940,10 @@
         <v>447</v>
       </c>
       <c r="XQ78" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="XS78" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="79" spans="638:643" x14ac:dyDescent="0.25">
@@ -9944,10 +9954,10 @@
         <v>448</v>
       </c>
       <c r="XQ79" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="XS79" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="80" spans="638:643" x14ac:dyDescent="0.25">
@@ -9958,10 +9968,10 @@
         <v>449</v>
       </c>
       <c r="XQ80" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="XS80" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="81" spans="638:643" x14ac:dyDescent="0.25">
@@ -9972,10 +9982,10 @@
         <v>450</v>
       </c>
       <c r="XQ81" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="XS81" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="82" spans="638:643" x14ac:dyDescent="0.25">
@@ -9986,10 +9996,10 @@
         <v>451</v>
       </c>
       <c r="XQ82" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="XS82" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="83" spans="638:643" x14ac:dyDescent="0.25">
@@ -10000,10 +10010,10 @@
         <v>452</v>
       </c>
       <c r="XQ83" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="XS83" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="84" spans="638:643" x14ac:dyDescent="0.25">
@@ -10014,10 +10024,10 @@
         <v>453</v>
       </c>
       <c r="XQ84" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="XS84" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="85" spans="638:643" x14ac:dyDescent="0.25">
@@ -10028,10 +10038,10 @@
         <v>454</v>
       </c>
       <c r="XQ85" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="XS85" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="86" spans="638:643" x14ac:dyDescent="0.25">
@@ -10042,10 +10052,10 @@
         <v>455</v>
       </c>
       <c r="XQ86" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="XS86" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="87" spans="638:643" x14ac:dyDescent="0.25">
@@ -10056,10 +10066,10 @@
         <v>456</v>
       </c>
       <c r="XQ87" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="XS87" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="88" spans="638:643" x14ac:dyDescent="0.25">
@@ -10070,10 +10080,10 @@
         <v>457</v>
       </c>
       <c r="XQ88" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="XS88" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="89" spans="638:643" x14ac:dyDescent="0.25">
@@ -10084,10 +10094,10 @@
         <v>458</v>
       </c>
       <c r="XQ89" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="XS89" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="90" spans="638:643" x14ac:dyDescent="0.25">
@@ -10098,10 +10108,10 @@
         <v>459</v>
       </c>
       <c r="XQ90" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="XS90" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="91" spans="638:643" x14ac:dyDescent="0.25">
@@ -10112,10 +10122,10 @@
         <v>460</v>
       </c>
       <c r="XQ91" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="XS91" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="92" spans="638:643" x14ac:dyDescent="0.25">
@@ -10126,10 +10136,10 @@
         <v>461</v>
       </c>
       <c r="XQ92" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="XS92" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="93" spans="638:643" x14ac:dyDescent="0.25">
@@ -10140,10 +10150,10 @@
         <v>462</v>
       </c>
       <c r="XQ93" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="XS93" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="94" spans="638:643" x14ac:dyDescent="0.25">
@@ -10154,10 +10164,10 @@
         <v>463</v>
       </c>
       <c r="XQ94" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="XS94" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="95" spans="638:643" x14ac:dyDescent="0.25">
@@ -10168,10 +10178,10 @@
         <v>464</v>
       </c>
       <c r="XQ95" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="XS95" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="96" spans="638:643" x14ac:dyDescent="0.25">
@@ -10182,10 +10192,10 @@
         <v>465</v>
       </c>
       <c r="XQ96" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="XS96" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="97" spans="638:643" x14ac:dyDescent="0.25">
@@ -10196,10 +10206,10 @@
         <v>466</v>
       </c>
       <c r="XQ97" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="XS97" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="98" spans="638:643" x14ac:dyDescent="0.25">
@@ -10210,10 +10220,10 @@
         <v>467</v>
       </c>
       <c r="XQ98" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="XS98" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="99" spans="638:643" x14ac:dyDescent="0.25">
@@ -10224,10 +10234,10 @@
         <v>468</v>
       </c>
       <c r="XQ99" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="XS99" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="100" spans="638:643" x14ac:dyDescent="0.25">
@@ -10238,10 +10248,10 @@
         <v>469</v>
       </c>
       <c r="XQ100" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="XS100" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="101" spans="638:643" x14ac:dyDescent="0.25">
@@ -10252,10 +10262,10 @@
         <v>470</v>
       </c>
       <c r="XQ101" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="XS101" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="102" spans="638:643" x14ac:dyDescent="0.25">
@@ -10266,10 +10276,10 @@
         <v>471</v>
       </c>
       <c r="XQ102" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="XS102" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="103" spans="638:643" x14ac:dyDescent="0.25">
@@ -10280,10 +10290,10 @@
         <v>472</v>
       </c>
       <c r="XQ103" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="XS103" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="104" spans="638:643" x14ac:dyDescent="0.25">
@@ -10294,10 +10304,10 @@
         <v>473</v>
       </c>
       <c r="XQ104" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="XS104" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="105" spans="638:643" x14ac:dyDescent="0.25">
@@ -10308,10 +10318,10 @@
         <v>474</v>
       </c>
       <c r="XQ105" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="XS105" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="106" spans="638:643" x14ac:dyDescent="0.25">
@@ -10322,10 +10332,10 @@
         <v>475</v>
       </c>
       <c r="XQ106" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="XS106" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="107" spans="638:643" x14ac:dyDescent="0.25">
@@ -10336,10 +10346,10 @@
         <v>476</v>
       </c>
       <c r="XQ107" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="XS107" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="108" spans="638:643" x14ac:dyDescent="0.25">
@@ -10350,10 +10360,10 @@
         <v>477</v>
       </c>
       <c r="XQ108" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="XS108" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="109" spans="638:643" x14ac:dyDescent="0.25">
@@ -10364,10 +10374,10 @@
         <v>478</v>
       </c>
       <c r="XQ109" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="XS109" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="110" spans="638:643" x14ac:dyDescent="0.25">
@@ -10378,10 +10388,10 @@
         <v>479</v>
       </c>
       <c r="XQ110" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="XS110" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="111" spans="638:643" x14ac:dyDescent="0.25">
@@ -10392,10 +10402,10 @@
         <v>480</v>
       </c>
       <c r="XQ111" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="XS111" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="112" spans="638:643" x14ac:dyDescent="0.25">
@@ -10406,10 +10416,10 @@
         <v>481</v>
       </c>
       <c r="XQ112" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="XS112" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="113" spans="638:643" x14ac:dyDescent="0.25">
@@ -10420,10 +10430,10 @@
         <v>482</v>
       </c>
       <c r="XQ113" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="XS113" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="114" spans="638:643" x14ac:dyDescent="0.25">
@@ -10434,10 +10444,10 @@
         <v>483</v>
       </c>
       <c r="XQ114" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="XS114" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="115" spans="638:643" x14ac:dyDescent="0.25">
@@ -10448,10 +10458,10 @@
         <v>484</v>
       </c>
       <c r="XQ115" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="XS115" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="116" spans="638:643" x14ac:dyDescent="0.25">
@@ -10462,10 +10472,10 @@
         <v>485</v>
       </c>
       <c r="XQ116" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="XS116" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="117" spans="638:643" x14ac:dyDescent="0.25">
@@ -10476,10 +10486,10 @@
         <v>486</v>
       </c>
       <c r="XQ117" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="XS117" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="118" spans="638:643" x14ac:dyDescent="0.25">
@@ -10490,10 +10500,10 @@
         <v>487</v>
       </c>
       <c r="XQ118" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="XS118" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="119" spans="638:643" x14ac:dyDescent="0.25">
@@ -10504,10 +10514,10 @@
         <v>488</v>
       </c>
       <c r="XQ119" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="XS119" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="120" spans="638:643" x14ac:dyDescent="0.25">
@@ -10518,10 +10528,10 @@
         <v>489</v>
       </c>
       <c r="XQ120" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="XS120" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="121" spans="638:643" x14ac:dyDescent="0.25">
@@ -10532,10 +10542,10 @@
         <v>490</v>
       </c>
       <c r="XQ121" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="XS121" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="122" spans="638:643" x14ac:dyDescent="0.25">
@@ -10546,10 +10556,10 @@
         <v>491</v>
       </c>
       <c r="XQ122" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="XS122" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="123" spans="638:643" x14ac:dyDescent="0.25">
@@ -10560,10 +10570,10 @@
         <v>492</v>
       </c>
       <c r="XQ123" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="XS123" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="124" spans="638:643" x14ac:dyDescent="0.25">
@@ -10574,10 +10584,10 @@
         <v>493</v>
       </c>
       <c r="XQ124" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="XS124" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="125" spans="638:643" x14ac:dyDescent="0.25">
@@ -10588,10 +10598,10 @@
         <v>494</v>
       </c>
       <c r="XQ125" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="XS125" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="126" spans="638:643" x14ac:dyDescent="0.25">
@@ -10602,10 +10612,10 @@
         <v>495</v>
       </c>
       <c r="XQ126" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="XS126" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="127" spans="638:643" x14ac:dyDescent="0.25">
@@ -10616,10 +10626,10 @@
         <v>496</v>
       </c>
       <c r="XQ127" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="XS127" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="128" spans="638:643" x14ac:dyDescent="0.25">
@@ -10630,10 +10640,10 @@
         <v>497</v>
       </c>
       <c r="XQ128" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="XS128" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="129" spans="638:643" x14ac:dyDescent="0.25">
@@ -10644,10 +10654,10 @@
         <v>498</v>
       </c>
       <c r="XQ129" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="XS129" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="130" spans="638:643" x14ac:dyDescent="0.25">
@@ -10658,10 +10668,10 @@
         <v>499</v>
       </c>
       <c r="XQ130" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="XS130" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="131" spans="638:643" x14ac:dyDescent="0.25">
@@ -10672,10 +10682,10 @@
         <v>500</v>
       </c>
       <c r="XQ131" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="XS131" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="132" spans="638:643" x14ac:dyDescent="0.25">
@@ -10686,10 +10696,10 @@
         <v>501</v>
       </c>
       <c r="XQ132" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="XS132" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="133" spans="638:643" x14ac:dyDescent="0.25">
@@ -10700,10 +10710,10 @@
         <v>502</v>
       </c>
       <c r="XQ133" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="XS133" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="134" spans="638:643" x14ac:dyDescent="0.25">
@@ -10714,10 +10724,10 @@
         <v>503</v>
       </c>
       <c r="XQ134" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="XS134" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="135" spans="638:643" x14ac:dyDescent="0.25">
@@ -10728,10 +10738,10 @@
         <v>504</v>
       </c>
       <c r="XQ135" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="XS135" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="136" spans="638:643" x14ac:dyDescent="0.25">
@@ -10742,10 +10752,10 @@
         <v>505</v>
       </c>
       <c r="XQ136" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="XS136" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="137" spans="638:643" x14ac:dyDescent="0.25">
@@ -10756,10 +10766,10 @@
         <v>506</v>
       </c>
       <c r="XQ137" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="XS137" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="138" spans="638:643" x14ac:dyDescent="0.25">
@@ -10770,10 +10780,10 @@
         <v>507</v>
       </c>
       <c r="XQ138" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="XS138" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="139" spans="638:643" x14ac:dyDescent="0.25">
@@ -10784,10 +10794,10 @@
         <v>508</v>
       </c>
       <c r="XQ139" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="XS139" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="140" spans="638:643" x14ac:dyDescent="0.25">
@@ -10798,10 +10808,10 @@
         <v>509</v>
       </c>
       <c r="XQ140" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="XS140" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="141" spans="638:643" x14ac:dyDescent="0.25">
@@ -10812,10 +10822,10 @@
         <v>510</v>
       </c>
       <c r="XQ141" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="XS141" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="142" spans="638:643" x14ac:dyDescent="0.25">
@@ -10826,10 +10836,10 @@
         <v>511</v>
       </c>
       <c r="XQ142" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="XS142" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="143" spans="638:643" x14ac:dyDescent="0.25">
@@ -10840,10 +10850,10 @@
         <v>512</v>
       </c>
       <c r="XQ143" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="XS143" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="144" spans="638:643" x14ac:dyDescent="0.25">
@@ -10854,10 +10864,10 @@
         <v>513</v>
       </c>
       <c r="XQ144" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="XS144" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="145" spans="638:643" x14ac:dyDescent="0.25">
@@ -10868,10 +10878,10 @@
         <v>514</v>
       </c>
       <c r="XQ145" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="XS145" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="146" spans="638:643" x14ac:dyDescent="0.25">
@@ -10882,10 +10892,10 @@
         <v>515</v>
       </c>
       <c r="XQ146" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="XS146" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="147" spans="638:643" x14ac:dyDescent="0.25">
@@ -10896,10 +10906,10 @@
         <v>516</v>
       </c>
       <c r="XQ147" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="XS147" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="148" spans="638:643" x14ac:dyDescent="0.25">
@@ -10910,10 +10920,10 @@
         <v>517</v>
       </c>
       <c r="XQ148" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="XS148" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="149" spans="638:643" x14ac:dyDescent="0.25">
@@ -10924,10 +10934,10 @@
         <v>518</v>
       </c>
       <c r="XQ149" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="XS149" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="150" spans="638:643" x14ac:dyDescent="0.25">
@@ -10938,10 +10948,10 @@
         <v>519</v>
       </c>
       <c r="XQ150" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="XS150" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="151" spans="638:643" x14ac:dyDescent="0.25">
@@ -10952,10 +10962,10 @@
         <v>520</v>
       </c>
       <c r="XQ151" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="XS151" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="152" spans="638:643" x14ac:dyDescent="0.25">
@@ -10966,10 +10976,10 @@
         <v>521</v>
       </c>
       <c r="XQ152" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="XS152" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="153" spans="638:643" x14ac:dyDescent="0.25">
@@ -10980,10 +10990,10 @@
         <v>522</v>
       </c>
       <c r="XQ153" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="XS153" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="154" spans="638:643" x14ac:dyDescent="0.25">
@@ -10994,10 +11004,10 @@
         <v>523</v>
       </c>
       <c r="XQ154" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="XS154" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="155" spans="638:643" x14ac:dyDescent="0.25">
@@ -11008,10 +11018,10 @@
         <v>524</v>
       </c>
       <c r="XQ155" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="XS155" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="156" spans="638:643" x14ac:dyDescent="0.25">
@@ -11022,10 +11032,10 @@
         <v>525</v>
       </c>
       <c r="XQ156" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="XS156" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="157" spans="638:643" x14ac:dyDescent="0.25">
@@ -11036,10 +11046,10 @@
         <v>526</v>
       </c>
       <c r="XQ157" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="XS157" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="158" spans="638:643" x14ac:dyDescent="0.25">
@@ -11050,10 +11060,10 @@
         <v>527</v>
       </c>
       <c r="XQ158" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="XS158" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="159" spans="638:643" x14ac:dyDescent="0.25">
@@ -11064,10 +11074,10 @@
         <v>528</v>
       </c>
       <c r="XQ159" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="XS159" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="160" spans="638:643" x14ac:dyDescent="0.25">
@@ -11078,10 +11088,10 @@
         <v>529</v>
       </c>
       <c r="XQ160" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="XS160" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="161" spans="638:643" x14ac:dyDescent="0.25">
@@ -11092,10 +11102,10 @@
         <v>530</v>
       </c>
       <c r="XQ161" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="XS161" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="162" spans="638:643" x14ac:dyDescent="0.25">
@@ -11106,10 +11116,10 @@
         <v>531</v>
       </c>
       <c r="XQ162" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="XS162" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="163" spans="638:643" x14ac:dyDescent="0.25">
@@ -11120,10 +11130,10 @@
         <v>532</v>
       </c>
       <c r="XQ163" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="XS163" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="164" spans="638:643" x14ac:dyDescent="0.25">
@@ -11134,10 +11144,10 @@
         <v>533</v>
       </c>
       <c r="XQ164" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="XS164" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="165" spans="638:643" x14ac:dyDescent="0.25">
@@ -11148,10 +11158,10 @@
         <v>534</v>
       </c>
       <c r="XQ165" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="XS165" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="166" spans="638:643" x14ac:dyDescent="0.25">
@@ -11162,10 +11172,10 @@
         <v>535</v>
       </c>
       <c r="XQ166" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="XS166" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="167" spans="638:643" x14ac:dyDescent="0.25">
@@ -11176,10 +11186,10 @@
         <v>536</v>
       </c>
       <c r="XQ167" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="XS167" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="168" spans="638:643" x14ac:dyDescent="0.25">
@@ -11190,10 +11200,10 @@
         <v>537</v>
       </c>
       <c r="XQ168" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="XS168" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="169" spans="638:643" x14ac:dyDescent="0.25">
@@ -11204,10 +11214,10 @@
         <v>538</v>
       </c>
       <c r="XQ169" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="XS169" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="170" spans="638:643" x14ac:dyDescent="0.25">
@@ -11218,10 +11228,10 @@
         <v>539</v>
       </c>
       <c r="XQ170" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="XS170" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="171" spans="638:643" x14ac:dyDescent="0.25">
@@ -11232,10 +11242,10 @@
         <v>540</v>
       </c>
       <c r="XQ171" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="XS171" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="172" spans="638:643" x14ac:dyDescent="0.25">
@@ -11246,10 +11256,10 @@
         <v>541</v>
       </c>
       <c r="XQ172" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="XS172" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="173" spans="638:643" x14ac:dyDescent="0.25">
@@ -11260,10 +11270,10 @@
         <v>542</v>
       </c>
       <c r="XQ173" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="XS173" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="174" spans="638:643" x14ac:dyDescent="0.25">
@@ -11274,10 +11284,10 @@
         <v>543</v>
       </c>
       <c r="XQ174" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="XS174" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="175" spans="638:643" x14ac:dyDescent="0.25">
@@ -11288,10 +11298,10 @@
         <v>544</v>
       </c>
       <c r="XQ175" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="XS175" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="176" spans="638:643" x14ac:dyDescent="0.25">
@@ -11302,10 +11312,10 @@
         <v>545</v>
       </c>
       <c r="XQ176" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="XS176" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="177" spans="638:643" x14ac:dyDescent="0.25">
@@ -11316,10 +11326,10 @@
         <v>546</v>
       </c>
       <c r="XQ177" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="XS177" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="178" spans="638:643" x14ac:dyDescent="0.25">
@@ -11330,10 +11340,10 @@
         <v>547</v>
       </c>
       <c r="XQ178" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="XS178" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="179" spans="638:643" x14ac:dyDescent="0.25">
@@ -11344,10 +11354,10 @@
         <v>548</v>
       </c>
       <c r="XQ179" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="XS179" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="180" spans="638:643" x14ac:dyDescent="0.25">
@@ -11358,10 +11368,10 @@
         <v>549</v>
       </c>
       <c r="XQ180" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="XS180" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="181" spans="638:643" x14ac:dyDescent="0.25">
@@ -11372,10 +11382,10 @@
         <v>550</v>
       </c>
       <c r="XQ181" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="XS181" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="182" spans="638:643" x14ac:dyDescent="0.25">
@@ -11386,10 +11396,10 @@
         <v>551</v>
       </c>
       <c r="XQ182" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="XS182" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="183" spans="638:643" x14ac:dyDescent="0.25">
@@ -11400,10 +11410,10 @@
         <v>552</v>
       </c>
       <c r="XQ183" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="XS183" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="184" spans="638:643" x14ac:dyDescent="0.25">
@@ -11414,10 +11424,10 @@
         <v>553</v>
       </c>
       <c r="XQ184" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="XS184" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="185" spans="638:643" x14ac:dyDescent="0.25">
@@ -11428,7 +11438,7 @@
         <v>554</v>
       </c>
       <c r="XQ185" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="186" spans="638:643" x14ac:dyDescent="0.25">
@@ -11969,9 +11979,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12006,14 +12016,14 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>150</v>
@@ -12022,7 +12032,7 @@
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>115</v>
@@ -12031,7 +12041,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>117</v>
@@ -12040,7 +12050,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>163</v>
@@ -12049,7 +12059,7 @@
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>171</v>
@@ -12058,25 +12068,25 @@
     </row>
     <row r="13" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D13" s="40"/>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D14" s="40"/>
     </row>
     <row r="15" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>247</v>
@@ -12085,7 +12095,7 @@
     </row>
     <row r="16" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>313</v>
@@ -12147,9 +12157,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12184,7 +12194,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>150</v>
@@ -12193,7 +12203,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>115</v>
@@ -12202,7 +12212,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>117</v>
@@ -12211,7 +12221,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>119</v>
@@ -12220,7 +12230,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>121</v>
@@ -12229,7 +12239,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>125</v>
@@ -12238,7 +12248,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>127</v>
@@ -12247,7 +12257,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>129</v>
@@ -12256,7 +12266,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>131</v>
@@ -12265,7 +12275,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>133</v>
@@ -12274,7 +12284,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>135</v>
@@ -12283,7 +12293,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>137</v>
@@ -12292,7 +12302,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>139</v>
@@ -12301,7 +12311,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>141</v>
@@ -12310,7 +12320,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>145</v>
@@ -12319,7 +12329,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>274</v>
@@ -12328,7 +12338,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>276</v>
@@ -12337,7 +12347,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>107</v>
@@ -12346,7 +12356,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>95</v>
@@ -12355,7 +12365,7 @@
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>97</v>
@@ -12441,9 +12451,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12516,10 +12526,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12559,7 +12569,7 @@
         <v>620</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12567,10 +12577,10 @@
         <v>369</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>109</v>
+        <v>621</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>111</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -12611,11 +12621,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="35" customWidth="1"/>
-    <col min="4" max="6" width="20.5703125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12743,10 +12753,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12835,9 +12845,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
